--- a/doc/timer calculator.xlsx
+++ b/doc/timer calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heyu\Desktop\humanoid_hardware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3974104-2FC0-4441-B6FF-C039C416EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E3868-3E01-45C6-8F64-7B2252670146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Prescaler (PSC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>Duty Cycle (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate REG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +67,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +82,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -91,17 +126,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,60 +477,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="14.5" style="2"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="1"/>
+    <col min="1" max="4" width="17" style="2"/>
+    <col min="5" max="16384" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="3" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>168000000</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="7">
         <v>167</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="7">
         <v>19999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="7">
         <v>1000</v>
       </c>
-      <c r="E2" s="1">
-        <f>A2/((B2+1)*(C2+1))</f>
+      <c r="E3" s="8">
+        <f>A3/((B3+1)*(C3+1))</f>
         <v>50</v>
       </c>
-      <c r="F2" s="1">
-        <f>D2/C2*100</f>
+      <c r="F3" s="8">
+        <f>D3/C3*100</f>
         <v>5.0002500125006257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>168000000</v>
+      </c>
+      <c r="B7" s="7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>167</v>
+      </c>
+      <c r="E7" s="9">
+        <f>A7/(B7*(D7+1))-1</f>
+        <v>19999</v>
+      </c>
+      <c r="F7" s="9">
+        <f>C7*E7/100</f>
+        <v>999.95</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
